--- a/data.xlsx
+++ b/data.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="7095" activeTab="4" xr2:uid="{8F86F56C-DE81-43ED-9899-DD7DD37474D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="7095" activeTab="3" xr2:uid="{8F86F56C-DE81-43ED-9899-DD7DD37474D4}"/>
   </bookViews>
   <sheets>
     <sheet name="r = 2" sheetId="1" r:id="rId1"/>
     <sheet name="r = 3" sheetId="2" r:id="rId2"/>
     <sheet name="r = 4" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="weight (uniform)" sheetId="4" r:id="rId4"/>
+    <sheet name="weight(random)" sheetId="5" r:id="rId5"/>
+    <sheet name="stretch(p=0.02)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -66,8 +67,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10579,9 +10583,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$A$1:$D$1</c:f>
+              <c:f>'weight (uniform)'!$A$1:$D$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10625,9 +10647,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$A$2:$D$2</c:f>
+              <c:f>'weight (uniform)'!$A$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10671,9 +10711,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$A$3:$D$3</c:f>
+              <c:f>'weight (uniform)'!$A$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10717,9 +10775,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$A$4:$D$4</c:f>
+              <c:f>'weight (uniform)'!$A$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10764,6 +10840,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11022,6 +11099,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>weight(G)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -11034,23 +11114,41 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$A$1:$D$1</c:f>
+              <c:f>'weight(random)'!$A$1:$D$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>125409.81</c:v>
+                  <c:v>7358.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125409.81</c:v>
+                  <c:v>7358.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125409.81</c:v>
+                  <c:v>7358.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125409.81</c:v>
+                  <c:v>7358.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11065,6 +11163,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>weight(G')</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -11077,9 +11178,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$A$2:$D$2</c:f>
+              <c:f>'weight(random)'!$A$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11108,6 +11227,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>weight(MST(G))</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -11121,9 +11243,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$A$3:$D$3</c:f>
+              <c:f>'weight(random)'!$A$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11152,6 +11292,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>weight(G') upper bound</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -11164,9 +11307,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet5!$A$4:$D$4</c:f>
+              <c:f>'weight(random)'!$A$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11211,6 +11372,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11307,6 +11469,391 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1841657600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Stretch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> number</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average stretch number</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E18-46DC-891B-69A7C05FBC95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Maximum stretch number</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E18-46DC-891B-69A7C05FBC95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1739235456"/>
+        <c:axId val="1940199776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1739235456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1940199776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1940199776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1739235456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11587,6 +12134,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14722,6 +15309,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14929,15 +16032,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>195261</xdr:colOff>
+      <xdr:colOff>147636</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14949,6 +16052,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442911</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6B36CD-D5CB-4E94-833C-00720C7EB5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -22514,8 +23660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1DAE67-5D66-4FA1-8A95-8C67FD1175F1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22586,24 +23732,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745BC8CC-44C7-4621-AF2E-6E4595C2F628}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>125409.81</v>
+        <v>7358.32</v>
       </c>
       <c r="B1">
-        <v>125409.81</v>
+        <v>7358.32</v>
       </c>
       <c r="C1">
-        <v>125409.81</v>
+        <v>7358.32</v>
       </c>
       <c r="D1">
-        <v>125409.81</v>
+        <v>7358.32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22646,6 +23792,53 @@
       </c>
       <c r="D4">
         <v>3786.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF359B9-5448-44E4-B385-2548810757C9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1.3240525252525199</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1.7607050505050501</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2.0430484848484798</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2.16853131313131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.99</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="7095" activeTab="3" xr2:uid="{8F86F56C-DE81-43ED-9899-DD7DD37474D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="7095" activeTab="5" xr2:uid="{8F86F56C-DE81-43ED-9899-DD7DD37474D4}"/>
   </bookViews>
   <sheets>
     <sheet name="r = 2" sheetId="1" r:id="rId1"/>
@@ -11548,391 +11548,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Stretch</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> number</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Average stretch number</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E18-46DC-891B-69A7C05FBC95}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Maximum stretch number</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E18-46DC-891B-69A7C05FBC95}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1739235456"/>
-        <c:axId val="1940199776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1739235456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1940199776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1940199776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1739235456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12134,46 +11749,6 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15309,522 +14884,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -16070,42 +15129,51 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>442911</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6B36CD-D5CB-4E94-833C-00720C7EB5C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681E66D0-22B2-420D-B3E9-A9DAA55B4A00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="400050"/>
+          <a:ext cx="7296150" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -23660,7 +22728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1DAE67-5D66-4FA1-8A95-8C67FD1175F1}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -23804,8 +22872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF359B9-5448-44E4-B385-2548810757C9}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
